--- a/changes/545-ammo-temp.xlsx
+++ b/changes/545-ammo-temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10812B9-D9D0-44C0-848B-F300B5AEA2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72675F42-783F-4E98-8C1B-270AAFE10A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,43 +107,43 @@
     <t>pen</t>
   </si>
   <si>
-    <t>5.45x39_hornady_black_60gr_v_max</t>
-  </si>
-  <si>
-    <t>5.45x39 Hornady BLACK 60gr V-MAX (TA545390)</t>
-  </si>
-  <si>
-    <t>5.45x39_tulammo_60gr_fmj_ta545390</t>
-  </si>
-  <si>
-    <t>5.45x39 TulAmmo 60gr FMJ (TA545390)</t>
-  </si>
-  <si>
-    <t>5.45x39_tulammo_bs_64gr_bmj_7n24</t>
-  </si>
-  <si>
-    <t>5.45x39 TulAmmo BS 64gr BMJ (7N24)</t>
-  </si>
-  <si>
-    <t>5.45x39_tulammo_t_gs_49gr_red_tracer_7t3</t>
-  </si>
-  <si>
-    <t>5.45x39 TulAmmo T gs 49gr Red Tracer (7T3)</t>
-  </si>
-  <si>
-    <t>5.45x39_barnaul_bt_55gr_hpspc</t>
-  </si>
-  <si>
-    <t>5.45x39 Barnaul 55gr HP SPC</t>
-  </si>
-  <si>
-    <t>5.45x39_tulammo_53gr_fmj_7n6</t>
-  </si>
-  <si>
-    <t>5.45x39 TulAmmo 53gr FMJ (7N6)</t>
-  </si>
-  <si>
     <t>barrel_deviation</t>
+  </si>
+  <si>
+    <t>5.45x39_hornady_black_60gr_vmax</t>
+  </si>
+  <si>
+    <t>5.45x39_silver_bear_60gr_fmj</t>
+  </si>
+  <si>
+    <t>5.45x39 Hornady BLACK 60gr V-MAX</t>
+  </si>
+  <si>
+    <t>5.45x39 Silver Bear 60gr FMJ</t>
+  </si>
+  <si>
+    <t>5.45x39_barnaul_7n22_57gr_bp</t>
+  </si>
+  <si>
+    <t>5.45x39 Barnaul 7N22 57gr BP</t>
+  </si>
+  <si>
+    <t>5.45x39 Tula 7T3 49gr Red Tracer</t>
+  </si>
+  <si>
+    <t>5.45x39_tula_7t3_49gr_red_tracer</t>
+  </si>
+  <si>
+    <t>5.45x39_tula_7n6_53gr_ps</t>
+  </si>
+  <si>
+    <t>5.45x39 Tula 7N6 53gr PS</t>
+  </si>
+  <si>
+    <t>5.45x39 Wolf Performance 55gr HPBT</t>
+  </si>
+  <si>
+    <t>5.45x39_wolf_performance_55gr_hpbt</t>
   </si>
 </sst>
 </file>
@@ -1003,11 +1003,12 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
     <col min="3" max="26" width="6.7109375" customWidth="1"/>
   </cols>
@@ -1040,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -1133,7 +1134,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>-2</v>
@@ -1185,7 +1186,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1231,7 +1232,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1283,7 +1284,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1335,7 +1336,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>-3</v>
@@ -1410,7 +1411,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -1454,7 +1455,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -1518,16 +1519,16 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1571,7 +1572,7 @@
       </c>
       <c r="W12">
         <f t="shared" ref="W12:W16" si="6">C12-D12*20-E12*0.8-F12*0.6-H12*10+J12/200+(R12-50)*1.2+S12/100+U12*1.5</f>
-        <v>9.42</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="Y12" s="1">
         <v>2756</v>
@@ -1585,7 +1586,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1646,10 +1647,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1710,10 +1711,10 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1774,10 +1775,10 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>2</v>
